--- a/data_year/zb/资源和环境/森林火灾.xlsx
+++ b/data_year/zb/资源和环境/森林火灾.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,651 +498,463 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6531</v>
+        <v>4795</v>
       </c>
       <c r="C2" t="n">
-        <v>59105.822</v>
+        <v>21048.672</v>
       </c>
       <c r="D2" t="n">
-        <v>142238.263</v>
+        <v>45761.081</v>
       </c>
       <c r="E2" t="n">
-        <v>74471.382</v>
+        <v>20208.822</v>
       </c>
       <c r="F2" t="n">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="G2" t="n">
-        <v>20212.973</v>
+        <v>11610.68</v>
       </c>
       <c r="H2" t="n">
-        <v>13466</v>
+        <v>7723</v>
       </c>
       <c r="I2" t="n">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>344211.219</v>
+        <v>116243.402</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2902</v>
+      </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4949</v>
+        <v>2993</v>
       </c>
       <c r="C3" t="n">
-        <v>36306.464</v>
+        <v>23915.763</v>
       </c>
       <c r="D3" t="n">
-        <v>73701.336</v>
+        <v>26949.816</v>
       </c>
       <c r="E3" t="n">
-        <v>30435.2</v>
+        <v>1696.021</v>
       </c>
       <c r="F3" t="n">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>15028.773</v>
+        <v>20173.418</v>
       </c>
       <c r="H3" t="n">
-        <v>11542</v>
+        <v>5550</v>
       </c>
       <c r="I3" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
-        <v>290632.805</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>63416.209</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2548</v>
+      </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2691</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18899.509</v>
-      </c>
+        <v>2397</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>408254.895</v>
-      </c>
-      <c r="E4" t="n">
-        <v>333585.051</v>
-      </c>
+        <v>13947.995</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>5374.948</v>
+        <v>10801.54</v>
       </c>
       <c r="H4" t="n">
-        <v>8170</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41</v>
-      </c>
+        <v>3966</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>562303.574</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>43171.168</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1568</v>
+      </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3205</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23306.037</v>
-      </c>
+        <v>2347</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>29285.886</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1590.863</v>
-      </c>
+        <v>13724.3782</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
-        <v>12415.49</v>
+        <v>6061.6292</v>
       </c>
       <c r="H5" t="n">
-        <v>9260</v>
-      </c>
-      <c r="I5" t="n">
-        <v>61</v>
-      </c>
+        <v>3929</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>125128.049</v>
+        <v>42890.42227</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
+      <c r="L5" t="n">
+        <v>1582</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5673</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45465.147</v>
-      </c>
+        <v>2080</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>52539.053</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2998.149</v>
-      </c>
+        <v>19110.37863</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="G6" t="n">
-        <v>12593.914</v>
+        <v>42512.7928</v>
       </c>
       <c r="H6" t="n">
-        <v>14144</v>
-      </c>
-      <c r="I6" t="n">
-        <v>97</v>
-      </c>
+        <v>3703</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>184494.535</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>55339.6023667</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1620</v>
+      </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4945</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36057.61</v>
-      </c>
+        <v>1676</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>46155.872</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5124.45</v>
-      </c>
+        <v>12940.02921</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>14511.449</v>
+        <v>6371.4492</v>
       </c>
       <c r="H7" t="n">
-        <v>8859</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
+        <v>2936</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>213635.876</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+        <v>33076.6168766667</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3878</v>
+        <v>1254</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4795</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21048.672</v>
-      </c>
+        <v>1340</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>45761.081</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20208.822</v>
-      </c>
+        <v>6223.7522</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>11610.68</v>
+        <v>4135.68404</v>
       </c>
       <c r="H8" t="n">
-        <v>7723</v>
-      </c>
-      <c r="I8" t="n">
-        <v>65</v>
-      </c>
+        <v>2034</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>116243.402</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
+        <v>18161.4619</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2902</v>
+        <v>693</v>
       </c>
       <c r="M8" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2993</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23915.763</v>
-      </c>
+        <v>2258</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>26949.816</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1696.021</v>
-      </c>
+        <v>24502.43</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G9" t="n">
-        <v>20173.418</v>
+        <v>4624.06</v>
       </c>
       <c r="H9" t="n">
-        <v>5550</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45</v>
-      </c>
+        <v>3223</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>63416.209</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>44428.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
       <c r="L9" t="n">
-        <v>2548</v>
+        <v>958</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2397</v>
+        <v>1579</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>13947.995</v>
+        <v>16309.07</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>10801.54</v>
+        <v>20444.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3966</v>
+        <v>2478</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>43171.168</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>28595.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
       <c r="L10" t="n">
-        <v>1568</v>
+        <v>894</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2347</v>
+        <v>1534</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>13724.3782</v>
+        <v>13504.9</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>6061.6292</v>
+        <v>16219.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3929</v>
+        <v>2345</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>42890.42227</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>39704.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
       <c r="L11" t="n">
-        <v>1582</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>802</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2080</v>
+        <v>722</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>19110.37863</v>
+        <v>8526.200000000001</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>42512.7928</v>
+        <v>10077.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3703</v>
+        <v>1153</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>55339.6023667</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+        <v>25080.8</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1620</v>
+        <v>424</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1676</v>
+        <v>295</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>12940.02921</v>
+        <v>4456.6246</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>6371.4492</v>
+        <v>3324.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2936</v>
+        <v>616</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>33076.6168766667</v>
+        <v>14124.4509</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1254</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1340</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>6223.7522</v>
+        <v>5000</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4135.68404</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>2034</v>
+        <v>709</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>18161.4619</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>693</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2258</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>24502.43</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4624.06</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3223</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>44428.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>958</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1579</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>16309.07</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>39</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20444.73</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2478</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>28595.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1534</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>13504.9</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>76</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16219.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2345</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>39704.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>802</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>722</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>8526.200000000001</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>41</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10077.67</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1153</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>25080.8</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>424</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
